--- a/documents/competitive_analysis/竞品列表.xlsx
+++ b/documents/competitive_analysis/竞品列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286DED69-5789-44BF-98EE-B96144F73BD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC5A8D-AEF8-4420-AD61-36B45214EAA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>竞品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,34 @@
   </si>
   <si>
     <t>小程序名称和公众号名不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众包吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台抽成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包工业企业部分研发任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直接登录，但需要验证手机；行业细分，切实解决用户需求；通过证书、学历对接单者能力进行考核；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无明确任务发布格式；交互逻辑不明晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给网站导流，而不是直接在小程序里完成流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细分领域的劳务众包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,6 +534,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/competitive_analysis/竞品列表.xlsx
+++ b/documents/competitive_analysis/竞品列表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC5A8D-AEF8-4420-AD61-36B45214EAA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FBC417-AB18-49D2-93FD-920CC99DBA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>竞品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>细分领域的劳务众包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图众包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为百度地图提供廉价的人工标注数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍商厦拍道路拍店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为百度地图体系的一部分，有比较高的全局价值，但本身不产出营收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格相对低廉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为百度地图提供廉价的数据标注服务，切实提高地图数据的实时性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,16 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="46.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
@@ -557,6 +581,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
